--- a/docs/DLX control word.xlsx
+++ b/docs/DLX control word.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCFF520-E60A-455C-8F47-650FD445AE8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44A6CAD-7F69-450A-A1D0-D90B9F02893B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="170">
   <si>
     <t>Original Name</t>
   </si>
@@ -295,13 +295,250 @@
   </si>
   <si>
     <t>r1&lt;=r2+5 (imm)</t>
+  </si>
+  <si>
+    <t>sel_rd_mux</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>beqz</t>
+  </si>
+  <si>
+    <t>bnez</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>and r1, r2, r3</t>
+  </si>
+  <si>
+    <t>r1&lt;= r2 AND r3</t>
+  </si>
+  <si>
+    <t>and r1, r2, #5</t>
+  </si>
+  <si>
+    <t>r1&lt;= r2 AND 5(imm)</t>
+  </si>
+  <si>
+    <t>beqz r1, target</t>
+  </si>
+  <si>
+    <t>if (r1==0) PC&lt;=PC+4+target</t>
+  </si>
+  <si>
+    <t>flush</t>
+  </si>
+  <si>
+    <t>j target</t>
+  </si>
+  <si>
+    <t>PC&lt;=PC+4+target</t>
+  </si>
+  <si>
+    <t>jal label</t>
+  </si>
+  <si>
+    <t>PC&lt;=PC+4+target  r31&lt;=PC+4</t>
+  </si>
+  <si>
+    <t>type_of_comp</t>
+  </si>
+  <si>
+    <t>E_TYPE_OF_COMP</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>M_IS_LINK</t>
+  </si>
+  <si>
+    <t>bneq r1, target</t>
+  </si>
+  <si>
+    <t>if (r1!=0)  PC&lt;=PC+4+target</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>lw r1, 5(r0)</t>
+  </si>
+  <si>
+    <t>r1&lt;=MEM[5 + r0]</t>
+  </si>
+  <si>
+    <t>no operation</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>or r1, r2 ,r3</t>
+  </si>
+  <si>
+    <t>r1&lt;=r2 OR r3</t>
+  </si>
+  <si>
+    <t>or r1, r2, #5</t>
+  </si>
+  <si>
+    <t>r1&lt;=r2 OR 5(imm)</t>
+  </si>
+  <si>
+    <t>sge</t>
+  </si>
+  <si>
+    <t>sgei</t>
+  </si>
+  <si>
+    <t>sle</t>
+  </si>
+  <si>
+    <t>sne</t>
+  </si>
+  <si>
+    <t>sge r1, r2, r3</t>
+  </si>
+  <si>
+    <t>if (r2&gt;=r3) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>sgei r1, r2, #5</t>
+  </si>
+  <si>
+    <t>if (r2&gt;=5(imm)) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>slei</t>
+  </si>
+  <si>
+    <t>sle r1, r2, r3</t>
+  </si>
+  <si>
+    <t>if (r2&lt;=r3) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>slei r1, r2, #5</t>
+  </si>
+  <si>
+    <t>if (r2&lt;=5(imm)) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>slli</t>
+  </si>
+  <si>
+    <t>sll r1, r2, r3</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 &lt;&lt; r3(27 to 31)</t>
+  </si>
+  <si>
+    <t>slli r1, r2, #3</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 &lt;&lt; 3</t>
+  </si>
+  <si>
+    <t>snei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sne </t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>srli</t>
+  </si>
+  <si>
+    <t>subi</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sne r1, r2, r3</t>
+  </si>
+  <si>
+    <t>if (r2!=r3) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>snei r1, r2, #5</t>
+  </si>
+  <si>
+    <t>if (r2!=5(imm)) r1&lt;='1' else r1&lt;='0'</t>
+  </si>
+  <si>
+    <t>srl r1, r2, r3</t>
+  </si>
+  <si>
+    <t>sub r1, r2, r3</t>
+  </si>
+  <si>
+    <t>srl r1, r2, #3</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 &gt;&gt; r3(27 to 31)</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 &gt;&gt; 3</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 - r3</t>
+  </si>
+  <si>
+    <t>sub r1, r2,#5</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 - 5(imm)</t>
+  </si>
+  <si>
+    <t>sw r1, 5(r0)</t>
+  </si>
+  <si>
+    <t>MEM[5 + r0] &lt;= r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xor </t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>xor r1, r2, r3</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 XOR r3</t>
+  </si>
+  <si>
+    <t>xori r1, r2, #5</t>
+  </si>
+  <si>
+    <t>r1 &lt;= r2 XOR 5(imm)</t>
+  </si>
+  <si>
+    <t>D_SEL_RD_MUX</t>
+  </si>
+  <si>
+    <t>D_EN_NPC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -347,8 +584,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,6 +638,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +785,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -552,6 +826,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -772,10 +1069,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -784,25 +1081,125 @@
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="4.140625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" style="27" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" style="45" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="27" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" style="45" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" style="45" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" style="27" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" style="45" customWidth="1"/>
+    <col min="25" max="25" width="4" style="27" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="45" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" style="27" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="45" customWidth="1"/>
+    <col min="29" max="29" width="4.7109375" customWidth="1"/>
+    <col min="30" max="30" width="4.42578125" style="27" customWidth="1"/>
+    <col min="31" max="31" width="4.5703125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -814,7 +1211,7 @@
       </c>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -824,7 +1221,7 @@
       </c>
       <c r="D3" s="28"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -834,7 +1231,7 @@
       </c>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -846,7 +1243,7 @@
       </c>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
@@ -855,21 +1252,89 @@
         <v>37</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="37">
-        <v>1</v>
-      </c>
-      <c r="F6" s="37">
-        <v>1</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
+        <v>1</v>
+      </c>
+      <c r="N6" s="46">
+        <v>0</v>
+      </c>
+      <c r="O6" s="42">
+        <v>1</v>
+      </c>
+      <c r="P6" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>1</v>
+      </c>
+      <c r="R6" s="46">
+        <v>1</v>
+      </c>
+      <c r="S6" s="42">
+        <v>1</v>
+      </c>
+      <c r="T6" s="46">
+        <v>1</v>
+      </c>
+      <c r="U6" s="42">
+        <v>1</v>
+      </c>
+      <c r="V6" s="46">
+        <v>1</v>
+      </c>
+      <c r="W6" s="42">
+        <v>1</v>
+      </c>
+      <c r="X6" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -878,19 +1343,89 @@
         <v>38</v>
       </c>
       <c r="D7" s="28"/>
-      <c r="E7" s="37">
-        <v>1</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E7" s="42">
+        <v>1</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="46">
+        <v>1</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0</v>
+      </c>
+      <c r="M7" s="37">
+        <v>1</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0</v>
+      </c>
+      <c r="O7" s="42">
+        <v>1</v>
+      </c>
+      <c r="P7" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>1</v>
+      </c>
+      <c r="R7" s="46">
+        <v>1</v>
+      </c>
+      <c r="S7" s="42">
+        <v>1</v>
+      </c>
+      <c r="T7" s="46">
+        <v>1</v>
+      </c>
+      <c r="U7" s="42">
+        <v>1</v>
+      </c>
+      <c r="V7" s="46">
+        <v>1</v>
+      </c>
+      <c r="W7" s="42">
+        <v>1</v>
+      </c>
+      <c r="X7" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>10</v>
@@ -899,19 +1434,89 @@
         <v>39</v>
       </c>
       <c r="D8" s="28"/>
-      <c r="E8" s="37">
-        <v>1</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <v>0</v>
+      </c>
+      <c r="L8" s="42">
+        <v>0</v>
+      </c>
+      <c r="M8" s="37">
+        <v>0</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0</v>
+      </c>
+      <c r="O8" s="42">
+        <v>1</v>
+      </c>
+      <c r="P8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>1</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0</v>
+      </c>
+      <c r="S8" s="42">
+        <v>1</v>
+      </c>
+      <c r="T8" s="46">
+        <v>0</v>
+      </c>
+      <c r="U8" s="42">
+        <v>1</v>
+      </c>
+      <c r="V8" s="46">
+        <v>0</v>
+      </c>
+      <c r="W8" s="42">
+        <v>1</v>
+      </c>
+      <c r="X8" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -920,19 +1525,89 @@
         <v>45</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="37">
-        <v>0</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E9" s="42">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>1</v>
+      </c>
+      <c r="J9" s="46">
+        <v>1</v>
+      </c>
+      <c r="K9" s="42">
+        <v>1</v>
+      </c>
+      <c r="L9" s="42">
+        <v>1</v>
+      </c>
+      <c r="M9" s="37">
+        <v>0</v>
+      </c>
+      <c r="N9" s="46">
+        <v>0</v>
+      </c>
+      <c r="O9" s="42">
+        <v>0</v>
+      </c>
+      <c r="P9" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>0</v>
+      </c>
+      <c r="R9" s="46">
+        <v>0</v>
+      </c>
+      <c r="S9" s="42">
+        <v>0</v>
+      </c>
+      <c r="T9" s="46">
+        <v>0</v>
+      </c>
+      <c r="U9" s="42">
+        <v>0</v>
+      </c>
+      <c r="V9" s="46">
+        <v>0</v>
+      </c>
+      <c r="W9" s="42">
+        <v>0</v>
+      </c>
+      <c r="X9" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>13</v>
@@ -941,19 +1616,89 @@
         <v>41</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="37">
-        <v>1</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E10" s="42">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>1</v>
+      </c>
+      <c r="H10" s="46">
+        <v>1</v>
+      </c>
+      <c r="I10" s="42">
+        <v>1</v>
+      </c>
+      <c r="J10" s="46">
+        <v>1</v>
+      </c>
+      <c r="K10" s="42">
+        <v>1</v>
+      </c>
+      <c r="L10" s="42">
+        <v>1</v>
+      </c>
+      <c r="M10" s="38">
+        <v>1</v>
+      </c>
+      <c r="N10" s="46">
+        <v>1</v>
+      </c>
+      <c r="O10" s="42">
+        <v>1</v>
+      </c>
+      <c r="P10" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>1</v>
+      </c>
+      <c r="R10" s="46">
+        <v>1</v>
+      </c>
+      <c r="S10" s="42">
+        <v>1</v>
+      </c>
+      <c r="T10" s="46">
+        <v>1</v>
+      </c>
+      <c r="U10" s="42">
+        <v>1</v>
+      </c>
+      <c r="V10" s="46">
+        <v>1</v>
+      </c>
+      <c r="W10" s="42">
+        <v>1</v>
+      </c>
+      <c r="X10" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>14</v>
@@ -962,19 +1707,89 @@
         <v>42</v>
       </c>
       <c r="D11" s="28"/>
-      <c r="E11" s="37">
-        <v>1</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E11" s="42">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1</v>
+      </c>
+      <c r="H11" s="46">
+        <v>1</v>
+      </c>
+      <c r="I11" s="42">
+        <v>1</v>
+      </c>
+      <c r="J11" s="46">
+        <v>1</v>
+      </c>
+      <c r="K11" s="42">
+        <v>1</v>
+      </c>
+      <c r="L11" s="42">
+        <v>1</v>
+      </c>
+      <c r="M11" s="38">
+        <v>1</v>
+      </c>
+      <c r="N11" s="46">
+        <v>1</v>
+      </c>
+      <c r="O11" s="42">
+        <v>1</v>
+      </c>
+      <c r="P11" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>1</v>
+      </c>
+      <c r="R11" s="46">
+        <v>1</v>
+      </c>
+      <c r="S11" s="42">
+        <v>1</v>
+      </c>
+      <c r="T11" s="46">
+        <v>1</v>
+      </c>
+      <c r="U11" s="42">
+        <v>1</v>
+      </c>
+      <c r="V11" s="46">
+        <v>1</v>
+      </c>
+      <c r="W11" s="42">
+        <v>1</v>
+      </c>
+      <c r="X11" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>15</v>
@@ -983,19 +1798,89 @@
         <v>43</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="37">
-        <v>1</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E12" s="42">
+        <v>1</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42">
+        <v>1</v>
+      </c>
+      <c r="H12" s="46">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42">
+        <v>1</v>
+      </c>
+      <c r="J12" s="46">
+        <v>1</v>
+      </c>
+      <c r="K12" s="42">
+        <v>1</v>
+      </c>
+      <c r="L12" s="42">
+        <v>1</v>
+      </c>
+      <c r="M12" s="38">
+        <v>1</v>
+      </c>
+      <c r="N12" s="46">
+        <v>1</v>
+      </c>
+      <c r="O12" s="42">
+        <v>1</v>
+      </c>
+      <c r="P12" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>1</v>
+      </c>
+      <c r="R12" s="46">
+        <v>1</v>
+      </c>
+      <c r="S12" s="42">
+        <v>1</v>
+      </c>
+      <c r="T12" s="46">
+        <v>1</v>
+      </c>
+      <c r="U12" s="42">
+        <v>1</v>
+      </c>
+      <c r="V12" s="46">
+        <v>1</v>
+      </c>
+      <c r="W12" s="42">
+        <v>1</v>
+      </c>
+      <c r="X12" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>16</v>
@@ -1004,462 +1889,2305 @@
         <v>44</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="37">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="E13" s="42">
+        <v>1</v>
+      </c>
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="42">
+        <v>1</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1</v>
+      </c>
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46">
+        <v>1</v>
+      </c>
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="42">
+        <v>1</v>
+      </c>
+      <c r="M13" s="38">
+        <v>1</v>
+      </c>
+      <c r="N13" s="46">
+        <v>1</v>
+      </c>
+      <c r="O13" s="42">
+        <v>1</v>
+      </c>
+      <c r="P13" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>1</v>
+      </c>
+      <c r="R13" s="46">
+        <v>1</v>
+      </c>
+      <c r="S13" s="42">
+        <v>1</v>
+      </c>
+      <c r="T13" s="46">
+        <v>1</v>
+      </c>
+      <c r="U13" s="42">
+        <v>1</v>
+      </c>
+      <c r="V13" s="46">
+        <v>1</v>
+      </c>
+      <c r="W13" s="42">
+        <v>1</v>
+      </c>
+      <c r="X13" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="43">
+        <v>1</v>
+      </c>
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1</v>
+      </c>
+      <c r="H14" s="46">
+        <v>1</v>
+      </c>
+      <c r="I14" s="42">
+        <v>1</v>
+      </c>
+      <c r="J14" s="46">
+        <v>1</v>
+      </c>
+      <c r="K14" s="42">
+        <v>1</v>
+      </c>
+      <c r="L14" s="42">
+        <v>1</v>
+      </c>
+      <c r="M14" s="38">
+        <v>1</v>
+      </c>
+      <c r="N14" s="46">
+        <v>1</v>
+      </c>
+      <c r="O14" s="42">
+        <v>1</v>
+      </c>
+      <c r="P14" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>1</v>
+      </c>
+      <c r="R14" s="46">
+        <v>1</v>
+      </c>
+      <c r="S14" s="42">
+        <v>1</v>
+      </c>
+      <c r="T14" s="46">
+        <v>1</v>
+      </c>
+      <c r="U14" s="42">
+        <v>1</v>
+      </c>
+      <c r="V14" s="46">
+        <v>1</v>
+      </c>
+      <c r="W14" s="42">
+        <v>1</v>
+      </c>
+      <c r="X14" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="38">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="37">
-        <v>1</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="42">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+      <c r="G15" s="42">
+        <v>1</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0</v>
+      </c>
+      <c r="L15" s="42">
+        <v>1</v>
+      </c>
+      <c r="M15" s="37">
+        <v>1</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0</v>
+      </c>
+      <c r="O15" s="42">
+        <v>1</v>
+      </c>
+      <c r="P15" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>1</v>
+      </c>
+      <c r="R15" s="46">
+        <v>1</v>
+      </c>
+      <c r="S15" s="42">
+        <v>1</v>
+      </c>
+      <c r="T15" s="46">
+        <v>1</v>
+      </c>
+      <c r="U15" s="42">
+        <v>1</v>
+      </c>
+      <c r="V15" s="46">
+        <v>1</v>
+      </c>
+      <c r="W15" s="42">
+        <v>1</v>
+      </c>
+      <c r="X15" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="42">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1</v>
+      </c>
+      <c r="H16" s="46">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="46">
+        <v>1</v>
+      </c>
+      <c r="K16" s="42">
+        <v>1</v>
+      </c>
+      <c r="L16" s="42">
+        <v>1</v>
+      </c>
+      <c r="M16" s="37">
+        <v>0</v>
+      </c>
+      <c r="N16" s="46">
+        <v>0</v>
+      </c>
+      <c r="O16" s="42">
+        <v>1</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>1</v>
+      </c>
+      <c r="R16" s="46">
+        <v>0</v>
+      </c>
+      <c r="S16" s="42">
+        <v>1</v>
+      </c>
+      <c r="T16" s="46">
+        <v>0</v>
+      </c>
+      <c r="U16" s="42">
+        <v>1</v>
+      </c>
+      <c r="V16" s="46">
+        <v>0</v>
+      </c>
+      <c r="W16" s="42">
+        <v>1</v>
+      </c>
+      <c r="X16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="37">
-        <v>0</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="37">
-        <v>1</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="37">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E17" s="42">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="46">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <v>1</v>
+      </c>
+      <c r="J17" s="46">
+        <v>1</v>
+      </c>
+      <c r="K17" s="42">
+        <v>1</v>
+      </c>
+      <c r="L17" s="42">
+        <v>1</v>
+      </c>
+      <c r="M17" s="37">
+        <v>0</v>
+      </c>
+      <c r="N17" s="46">
+        <v>0</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>0</v>
+      </c>
+      <c r="R17" s="46">
+        <v>0</v>
+      </c>
+      <c r="S17" s="42">
+        <v>0</v>
+      </c>
+      <c r="T17" s="46">
+        <v>0</v>
+      </c>
+      <c r="U17" s="42">
+        <v>0</v>
+      </c>
+      <c r="V17" s="46">
+        <v>0</v>
+      </c>
+      <c r="W17" s="42">
+        <v>0</v>
+      </c>
+      <c r="X17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="37">
-        <v>0</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E18" s="42">
+        <v>1</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>1</v>
+      </c>
+      <c r="H18" s="46">
+        <v>0</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0</v>
+      </c>
+      <c r="M18" s="37">
+        <v>0</v>
+      </c>
+      <c r="N18" s="46">
+        <v>0</v>
+      </c>
+      <c r="O18" s="42">
+        <v>1</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>1</v>
+      </c>
+      <c r="R18" s="46">
+        <v>0</v>
+      </c>
+      <c r="S18" s="42">
+        <v>1</v>
+      </c>
+      <c r="T18" s="46">
+        <v>0</v>
+      </c>
+      <c r="U18" s="42">
+        <v>1</v>
+      </c>
+      <c r="V18" s="46">
+        <v>0</v>
+      </c>
+      <c r="W18" s="42">
+        <v>1</v>
+      </c>
+      <c r="X18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="37">
-        <v>0</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E19" s="42">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>1</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="K19" s="42">
+        <v>0</v>
+      </c>
+      <c r="L19" s="42">
+        <v>0</v>
+      </c>
+      <c r="M19" s="37">
+        <v>0</v>
+      </c>
+      <c r="N19" s="46">
+        <v>1</v>
+      </c>
+      <c r="O19" s="42">
+        <v>0</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>0</v>
+      </c>
+      <c r="R19" s="46">
+        <v>0</v>
+      </c>
+      <c r="S19" s="42">
+        <v>1</v>
+      </c>
+      <c r="T19" s="46">
+        <v>1</v>
+      </c>
+      <c r="U19" s="42">
+        <v>0</v>
+      </c>
+      <c r="V19" s="46">
+        <v>0</v>
+      </c>
+      <c r="W19" s="42">
+        <v>0</v>
+      </c>
+      <c r="X19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="37">
-        <v>0</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E20" s="42">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42">
+        <v>1</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0</v>
+      </c>
+      <c r="L20" s="42">
+        <v>0</v>
+      </c>
+      <c r="M20" s="37">
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <v>1</v>
+      </c>
+      <c r="O20" s="42">
+        <v>0</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>0</v>
+      </c>
+      <c r="R20" s="46">
+        <v>0</v>
+      </c>
+      <c r="S20" s="42">
+        <v>0</v>
+      </c>
+      <c r="T20" s="46">
+        <v>0</v>
+      </c>
+      <c r="U20" s="42">
+        <v>1</v>
+      </c>
+      <c r="V20" s="46">
+        <v>1</v>
+      </c>
+      <c r="W20" s="42">
+        <v>1</v>
+      </c>
+      <c r="X20" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="37">
-        <v>1</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E21" s="42">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0</v>
+      </c>
+      <c r="M21" s="37">
+        <v>0</v>
+      </c>
+      <c r="N21" s="46">
+        <v>1</v>
+      </c>
+      <c r="O21" s="42">
+        <v>1</v>
+      </c>
+      <c r="P21" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>1</v>
+      </c>
+      <c r="R21" s="46">
+        <v>1</v>
+      </c>
+      <c r="S21" s="42">
+        <v>1</v>
+      </c>
+      <c r="T21" s="46">
+        <v>1</v>
+      </c>
+      <c r="U21" s="42">
+        <v>1</v>
+      </c>
+      <c r="V21" s="46">
+        <v>1</v>
+      </c>
+      <c r="W21" s="42">
+        <v>1</v>
+      </c>
+      <c r="X21" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="28"/>
-      <c r="E22" s="37">
-        <v>1</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E22" s="42">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
+        <v>0</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0</v>
+      </c>
+      <c r="H22" s="46">
+        <v>0</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0</v>
+      </c>
+      <c r="K22" s="42">
+        <v>0</v>
+      </c>
+      <c r="L22" s="42">
+        <v>0</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="46">
+        <v>1</v>
+      </c>
+      <c r="O22" s="42">
+        <v>0</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>1</v>
+      </c>
+      <c r="R22" s="46">
+        <v>1</v>
+      </c>
+      <c r="S22" s="42">
+        <v>1</v>
+      </c>
+      <c r="T22" s="46">
+        <v>1</v>
+      </c>
+      <c r="U22" s="42">
+        <v>0</v>
+      </c>
+      <c r="V22" s="46">
+        <v>0</v>
+      </c>
+      <c r="W22" s="42">
+        <v>1</v>
+      </c>
+      <c r="X22" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="37">
-        <v>1</v>
-      </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E23" s="42">
+        <v>1</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42">
+        <v>1</v>
+      </c>
+      <c r="H23" s="46">
+        <v>1</v>
+      </c>
+      <c r="I23" s="42">
+        <v>1</v>
+      </c>
+      <c r="J23" s="46">
+        <v>1</v>
+      </c>
+      <c r="K23" s="42">
+        <v>1</v>
+      </c>
+      <c r="L23" s="42">
+        <v>1</v>
+      </c>
+      <c r="M23" s="39">
+        <v>1</v>
+      </c>
+      <c r="N23" s="46">
+        <v>1</v>
+      </c>
+      <c r="O23" s="42">
+        <v>1</v>
+      </c>
+      <c r="P23" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="42">
+        <v>1</v>
+      </c>
+      <c r="R23" s="46">
+        <v>1</v>
+      </c>
+      <c r="S23" s="42">
+        <v>1</v>
+      </c>
+      <c r="T23" s="46">
+        <v>1</v>
+      </c>
+      <c r="U23" s="42">
+        <v>1</v>
+      </c>
+      <c r="V23" s="46">
+        <v>1</v>
+      </c>
+      <c r="W23" s="42">
+        <v>1</v>
+      </c>
+      <c r="X23" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="28"/>
-      <c r="E24" s="37">
-        <v>1</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E24" s="42">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46">
+        <v>1</v>
+      </c>
+      <c r="G24" s="42">
+        <v>1</v>
+      </c>
+      <c r="H24" s="46">
+        <v>1</v>
+      </c>
+      <c r="I24" s="42">
+        <v>1</v>
+      </c>
+      <c r="J24" s="46">
+        <v>1</v>
+      </c>
+      <c r="K24" s="42">
+        <v>1</v>
+      </c>
+      <c r="L24" s="42">
+        <v>1</v>
+      </c>
+      <c r="M24" s="39">
+        <v>1</v>
+      </c>
+      <c r="N24" s="46">
+        <v>1</v>
+      </c>
+      <c r="O24" s="42">
+        <v>1</v>
+      </c>
+      <c r="P24" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="42">
+        <v>1</v>
+      </c>
+      <c r="R24" s="46">
+        <v>1</v>
+      </c>
+      <c r="S24" s="42">
+        <v>1</v>
+      </c>
+      <c r="T24" s="46">
+        <v>1</v>
+      </c>
+      <c r="U24" s="42">
+        <v>1</v>
+      </c>
+      <c r="V24" s="46">
+        <v>1</v>
+      </c>
+      <c r="W24" s="42">
+        <v>1</v>
+      </c>
+      <c r="X24" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="42">
+        <v>1</v>
+      </c>
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="42">
+        <v>1</v>
+      </c>
+      <c r="H25" s="46">
+        <v>1</v>
+      </c>
+      <c r="I25" s="42">
+        <v>1</v>
+      </c>
+      <c r="J25" s="46">
+        <v>1</v>
+      </c>
+      <c r="K25" s="42">
+        <v>1</v>
+      </c>
+      <c r="L25" s="42">
+        <v>1</v>
+      </c>
+      <c r="M25" s="39">
+        <v>1</v>
+      </c>
+      <c r="N25" s="46">
+        <v>1</v>
+      </c>
+      <c r="O25" s="42">
+        <v>1</v>
+      </c>
+      <c r="P25" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="42">
+        <v>1</v>
+      </c>
+      <c r="R25" s="46">
+        <v>1</v>
+      </c>
+      <c r="S25" s="42">
+        <v>1</v>
+      </c>
+      <c r="T25" s="46">
+        <v>1</v>
+      </c>
+      <c r="U25" s="42">
+        <v>1</v>
+      </c>
+      <c r="V25" s="46">
+        <v>1</v>
+      </c>
+      <c r="W25" s="42">
+        <v>1</v>
+      </c>
+      <c r="X25" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="42">
+        <v>1</v>
+      </c>
+      <c r="F26" s="46">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42">
+        <v>1</v>
+      </c>
+      <c r="H26" s="46">
+        <v>1</v>
+      </c>
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="46">
+        <v>1</v>
+      </c>
+      <c r="K26" s="42">
+        <v>1</v>
+      </c>
+      <c r="L26" s="42">
+        <v>1</v>
+      </c>
+      <c r="M26" s="39">
+        <v>1</v>
+      </c>
+      <c r="N26" s="46">
+        <v>1</v>
+      </c>
+      <c r="O26" s="42">
+        <v>1</v>
+      </c>
+      <c r="P26" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="42">
+        <v>1</v>
+      </c>
+      <c r="R26" s="46">
+        <v>1</v>
+      </c>
+      <c r="S26" s="42">
+        <v>1</v>
+      </c>
+      <c r="T26" s="46">
+        <v>1</v>
+      </c>
+      <c r="U26" s="42">
+        <v>1</v>
+      </c>
+      <c r="V26" s="46">
+        <v>1</v>
+      </c>
+      <c r="W26" s="42">
+        <v>1</v>
+      </c>
+      <c r="X26" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="37">
-        <v>1</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="46">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42">
+        <v>1</v>
+      </c>
+      <c r="H27" s="46">
+        <v>1</v>
+      </c>
+      <c r="I27" s="42">
+        <v>1</v>
+      </c>
+      <c r="J27" s="46">
+        <v>1</v>
+      </c>
+      <c r="K27" s="42">
+        <v>1</v>
+      </c>
+      <c r="L27" s="42">
+        <v>1</v>
+      </c>
+      <c r="M27" s="39">
+        <v>1</v>
+      </c>
+      <c r="N27" s="46">
+        <v>1</v>
+      </c>
+      <c r="O27" s="42">
+        <v>1</v>
+      </c>
+      <c r="P27" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>1</v>
+      </c>
+      <c r="R27" s="46">
+        <v>1</v>
+      </c>
+      <c r="S27" s="42">
+        <v>1</v>
+      </c>
+      <c r="T27" s="46">
+        <v>1</v>
+      </c>
+      <c r="U27" s="42">
+        <v>1</v>
+      </c>
+      <c r="V27" s="46">
+        <v>1</v>
+      </c>
+      <c r="W27" s="42">
+        <v>1</v>
+      </c>
+      <c r="X27" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C28" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="37">
-        <v>0</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+      <c r="H28" s="46">
+        <v>0</v>
+      </c>
+      <c r="I28" s="42">
+        <v>1</v>
+      </c>
+      <c r="J28" s="46">
+        <v>1</v>
+      </c>
+      <c r="K28" s="42">
+        <v>0</v>
+      </c>
+      <c r="L28" s="42">
+        <v>0</v>
+      </c>
+      <c r="M28" s="37">
+        <v>0</v>
+      </c>
+      <c r="N28" s="46">
+        <v>0</v>
+      </c>
+      <c r="O28" s="42">
+        <v>0</v>
+      </c>
+      <c r="P28" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>0</v>
+      </c>
+      <c r="R28" s="46">
+        <v>0</v>
+      </c>
+      <c r="S28" s="42">
+        <v>0</v>
+      </c>
+      <c r="T28" s="46">
+        <v>0</v>
+      </c>
+      <c r="U28" s="42">
+        <v>0</v>
+      </c>
+      <c r="V28" s="46">
+        <v>0</v>
+      </c>
+      <c r="W28" s="42">
+        <v>0</v>
+      </c>
+      <c r="X28" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="42">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46">
+        <v>0</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+      <c r="H29" s="46">
+        <v>0</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46">
+        <v>1</v>
+      </c>
+      <c r="K29" s="42">
+        <v>0</v>
+      </c>
+      <c r="L29" s="42">
+        <v>0</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0</v>
+      </c>
+      <c r="N29" s="46">
+        <v>0</v>
+      </c>
+      <c r="O29" s="42">
+        <v>0</v>
+      </c>
+      <c r="P29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>0</v>
+      </c>
+      <c r="R29" s="46">
+        <v>0</v>
+      </c>
+      <c r="S29" s="42">
+        <v>0</v>
+      </c>
+      <c r="T29" s="46">
+        <v>0</v>
+      </c>
+      <c r="U29" s="42">
+        <v>0</v>
+      </c>
+      <c r="V29" s="46">
+        <v>0</v>
+      </c>
+      <c r="W29" s="42">
+        <v>0</v>
+      </c>
+      <c r="X29" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B30" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="37">
-        <v>0</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21" t="s">
+      <c r="D30" s="28"/>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+      <c r="F30" s="46">
+        <v>0</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0</v>
+      </c>
+      <c r="H30" s="46">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42">
+        <v>0</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0</v>
+      </c>
+      <c r="K30" s="42">
+        <v>0</v>
+      </c>
+      <c r="L30" s="42">
+        <v>0</v>
+      </c>
+      <c r="M30" s="37">
+        <v>1</v>
+      </c>
+      <c r="N30" s="46">
+        <v>0</v>
+      </c>
+      <c r="O30" s="42">
+        <v>0</v>
+      </c>
+      <c r="P30" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>0</v>
+      </c>
+      <c r="R30" s="46">
+        <v>0</v>
+      </c>
+      <c r="S30" s="42">
+        <v>0</v>
+      </c>
+      <c r="T30" s="46">
+        <v>0</v>
+      </c>
+      <c r="U30" s="42">
+        <v>0</v>
+      </c>
+      <c r="V30" s="46">
+        <v>0</v>
+      </c>
+      <c r="W30" s="42">
+        <v>0</v>
+      </c>
+      <c r="X30" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="37">
-        <v>0</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="42">
+        <v>0</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0</v>
+      </c>
+      <c r="H31" s="46">
+        <v>0</v>
+      </c>
+      <c r="I31" s="42">
+        <v>0</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0</v>
+      </c>
+      <c r="K31" s="42">
+        <v>0</v>
+      </c>
+      <c r="L31" s="42">
+        <v>0</v>
+      </c>
+      <c r="M31" s="37">
+        <v>0</v>
+      </c>
+      <c r="N31" s="46">
+        <v>0</v>
+      </c>
+      <c r="O31" s="42">
+        <v>0</v>
+      </c>
+      <c r="P31" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>0</v>
+      </c>
+      <c r="R31" s="46">
+        <v>0</v>
+      </c>
+      <c r="S31" s="42">
+        <v>0</v>
+      </c>
+      <c r="T31" s="46">
+        <v>0</v>
+      </c>
+      <c r="U31" s="42">
+        <v>0</v>
+      </c>
+      <c r="V31" s="46">
+        <v>0</v>
+      </c>
+      <c r="W31" s="42">
+        <v>0</v>
+      </c>
+      <c r="X31" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="37">
-        <v>1</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21" t="s">
+      <c r="D32" s="28"/>
+      <c r="E32" s="42">
+        <v>1</v>
+      </c>
+      <c r="F32" s="46">
+        <v>1</v>
+      </c>
+      <c r="G32" s="42">
+        <v>1</v>
+      </c>
+      <c r="H32" s="46">
+        <v>1</v>
+      </c>
+      <c r="I32" s="42">
+        <v>1</v>
+      </c>
+      <c r="J32" s="46">
+        <v>1</v>
+      </c>
+      <c r="K32" s="42">
+        <v>1</v>
+      </c>
+      <c r="L32" s="42">
+        <v>1</v>
+      </c>
+      <c r="M32" s="40">
+        <v>1</v>
+      </c>
+      <c r="N32" s="46">
+        <v>1</v>
+      </c>
+      <c r="O32" s="42">
+        <v>1</v>
+      </c>
+      <c r="P32" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>1</v>
+      </c>
+      <c r="R32" s="46">
+        <v>1</v>
+      </c>
+      <c r="S32" s="42">
+        <v>1</v>
+      </c>
+      <c r="T32" s="46">
+        <v>1</v>
+      </c>
+      <c r="U32" s="42">
+        <v>1</v>
+      </c>
+      <c r="V32" s="46">
+        <v>1</v>
+      </c>
+      <c r="W32" s="42">
+        <v>1</v>
+      </c>
+      <c r="X32" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="37">
-        <v>1</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="22" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="42">
+        <v>1</v>
+      </c>
+      <c r="F33" s="46">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="46">
+        <v>1</v>
+      </c>
+      <c r="I33" s="42">
+        <v>1</v>
+      </c>
+      <c r="J33" s="46">
+        <v>1</v>
+      </c>
+      <c r="K33" s="42">
+        <v>1</v>
+      </c>
+      <c r="L33" s="42">
+        <v>1</v>
+      </c>
+      <c r="M33" s="40">
+        <v>1</v>
+      </c>
+      <c r="N33" s="46">
+        <v>1</v>
+      </c>
+      <c r="O33" s="42">
+        <v>1</v>
+      </c>
+      <c r="P33" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>1</v>
+      </c>
+      <c r="R33" s="46">
+        <v>1</v>
+      </c>
+      <c r="S33" s="42">
+        <v>1</v>
+      </c>
+      <c r="T33" s="46">
+        <v>1</v>
+      </c>
+      <c r="U33" s="42">
+        <v>1</v>
+      </c>
+      <c r="V33" s="46">
+        <v>1</v>
+      </c>
+      <c r="W33" s="42">
+        <v>1</v>
+      </c>
+      <c r="X33" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="37">
-        <v>1</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="D34" s="28"/>
+      <c r="E34" s="42">
+        <v>1</v>
+      </c>
+      <c r="F34" s="46">
+        <v>1</v>
+      </c>
+      <c r="G34" s="42">
+        <v>1</v>
+      </c>
+      <c r="H34" s="46">
+        <v>1</v>
+      </c>
+      <c r="I34" s="42">
+        <v>1</v>
+      </c>
+      <c r="J34" s="46">
+        <v>1</v>
+      </c>
+      <c r="K34" s="42">
+        <v>1</v>
+      </c>
+      <c r="L34" s="42">
+        <v>1</v>
+      </c>
+      <c r="M34" s="40">
+        <v>1</v>
+      </c>
+      <c r="N34" s="46">
+        <v>1</v>
+      </c>
+      <c r="O34" s="42">
+        <v>1</v>
+      </c>
+      <c r="P34" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>1</v>
+      </c>
+      <c r="R34" s="46">
+        <v>1</v>
+      </c>
+      <c r="S34" s="42">
+        <v>1</v>
+      </c>
+      <c r="T34" s="46">
+        <v>1</v>
+      </c>
+      <c r="U34" s="42">
+        <v>1</v>
+      </c>
+      <c r="V34" s="46">
+        <v>1</v>
+      </c>
+      <c r="W34" s="42">
+        <v>1</v>
+      </c>
+      <c r="X34" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="42">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46">
+        <v>0</v>
+      </c>
+      <c r="G35" s="42">
+        <v>0</v>
+      </c>
+      <c r="H35" s="46">
+        <v>0</v>
+      </c>
+      <c r="I35" s="42">
+        <v>0</v>
+      </c>
+      <c r="J35" s="46">
+        <v>0</v>
+      </c>
+      <c r="K35" s="42">
+        <v>0</v>
+      </c>
+      <c r="L35" s="42">
+        <v>1</v>
+      </c>
+      <c r="M35" s="37">
+        <v>0</v>
+      </c>
+      <c r="N35" s="46">
+        <v>0</v>
+      </c>
+      <c r="O35" s="42">
+        <v>0</v>
+      </c>
+      <c r="P35" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="42">
+        <v>0</v>
+      </c>
+      <c r="R35" s="46">
+        <v>0</v>
+      </c>
+      <c r="S35" s="42">
+        <v>0</v>
+      </c>
+      <c r="T35" s="46">
+        <v>0</v>
+      </c>
+      <c r="U35" s="42">
+        <v>0</v>
+      </c>
+      <c r="V35" s="46">
+        <v>0</v>
+      </c>
+      <c r="W35" s="42">
+        <v>0</v>
+      </c>
+      <c r="X35" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B36" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="37">
-        <v>0</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26" t="s">
+      <c r="D36" s="28"/>
+      <c r="E36" s="42">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46">
+        <v>0</v>
+      </c>
+      <c r="G36" s="42">
+        <v>0</v>
+      </c>
+      <c r="H36" s="46">
+        <v>0</v>
+      </c>
+      <c r="I36" s="42">
+        <v>0</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0</v>
+      </c>
+      <c r="K36" s="42">
+        <v>0</v>
+      </c>
+      <c r="L36" s="42">
+        <v>0</v>
+      </c>
+      <c r="M36" s="37">
+        <v>1</v>
+      </c>
+      <c r="N36" s="46">
+        <v>0</v>
+      </c>
+      <c r="O36" s="42">
+        <v>0</v>
+      </c>
+      <c r="P36" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>0</v>
+      </c>
+      <c r="R36" s="46">
+        <v>0</v>
+      </c>
+      <c r="S36" s="42">
+        <v>0</v>
+      </c>
+      <c r="T36" s="46">
+        <v>0</v>
+      </c>
+      <c r="U36" s="42">
+        <v>0</v>
+      </c>
+      <c r="V36" s="46">
+        <v>0</v>
+      </c>
+      <c r="W36" s="42">
+        <v>0</v>
+      </c>
+      <c r="X36" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="46">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="42">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="37">
-        <v>1</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="42">
+        <v>1</v>
+      </c>
+      <c r="F37" s="46">
+        <v>1</v>
+      </c>
+      <c r="G37" s="42">
+        <v>1</v>
+      </c>
+      <c r="H37" s="46">
+        <v>1</v>
+      </c>
+      <c r="I37" s="42">
+        <v>1</v>
+      </c>
+      <c r="J37" s="46">
+        <v>1</v>
+      </c>
+      <c r="K37" s="42">
+        <v>1</v>
+      </c>
+      <c r="L37" s="42">
+        <v>1</v>
+      </c>
+      <c r="M37" s="41">
+        <v>1</v>
+      </c>
+      <c r="N37" s="46">
+        <v>1</v>
+      </c>
+      <c r="O37" s="42">
+        <v>1</v>
+      </c>
+      <c r="P37" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="42">
+        <v>1</v>
+      </c>
+      <c r="R37" s="46">
+        <v>1</v>
+      </c>
+      <c r="S37" s="42">
+        <v>1</v>
+      </c>
+      <c r="T37" s="46">
+        <v>1</v>
+      </c>
+      <c r="U37" s="42">
+        <v>1</v>
+      </c>
+      <c r="V37" s="46">
+        <v>1</v>
+      </c>
+      <c r="W37" s="42">
+        <v>1</v>
+      </c>
+      <c r="X37" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="46">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="42">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="46">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB6C55B-1828-4F5C-B408-11EC569BF4A7}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -1498,6 +4226,281 @@
       </c>
       <c r="C5" s="30" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1507,9 +4510,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B24CB6-A565-42D5-A263-D68CF5F5CFD6}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1755,6 +4760,60 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/DLX control word.xlsx
+++ b/docs/DLX control word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E57D1-F162-40FD-8D95-99093FBD3DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8FC14-0942-4BC2-9B28-C0ADD807282C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8715" yWindow="4320" windowWidth="16500" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7980" yWindow="6900" windowWidth="16500" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>Original Name</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>M_EN_REGS</t>
+  </si>
+  <si>
+    <t>is_jump</t>
+  </si>
+  <si>
+    <t>E_IS_JUMP</t>
+  </si>
+  <si>
+    <t>insert_nop</t>
+  </si>
+  <si>
+    <t>D_IS_JUMP</t>
   </si>
 </sst>
 </file>
@@ -4069,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0929A988-5560-4896-A0B9-6001DEF27DFB}">
-  <dimension ref="A1:AE26"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4593,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="39">
         <v>0</v>
@@ -4924,219 +4936,219 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+      <c r="H12" s="39">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
+        <v>0</v>
+      </c>
+      <c r="K12" s="39">
+        <v>1</v>
+      </c>
+      <c r="L12" s="39">
+        <v>1</v>
+      </c>
+      <c r="M12" s="39">
+        <v>0</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0</v>
+      </c>
+      <c r="O12" s="39">
+        <v>0</v>
+      </c>
+      <c r="P12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>0</v>
+      </c>
+      <c r="R12" s="39">
+        <v>0</v>
+      </c>
+      <c r="S12" s="39">
+        <v>0</v>
+      </c>
+      <c r="T12" s="39">
+        <v>0</v>
+      </c>
+      <c r="U12" s="39">
+        <v>0</v>
+      </c>
+      <c r="V12" s="39">
+        <v>0</v>
+      </c>
+      <c r="W12" s="39">
+        <v>0</v>
+      </c>
+      <c r="X12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="43" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="40">
-        <v>1</v>
-      </c>
-      <c r="F12" s="40">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40">
-        <v>1</v>
-      </c>
-      <c r="H12" s="40">
-        <v>1</v>
-      </c>
-      <c r="I12" s="40">
-        <v>1</v>
-      </c>
-      <c r="J12" s="40">
-        <v>1</v>
-      </c>
-      <c r="K12" s="40">
-        <v>1</v>
-      </c>
-      <c r="L12" s="40">
-        <v>1</v>
-      </c>
-      <c r="M12" s="40">
-        <v>1</v>
-      </c>
-      <c r="N12" s="40">
-        <v>1</v>
-      </c>
-      <c r="O12" s="40">
-        <v>1</v>
-      </c>
-      <c r="P12" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>1</v>
-      </c>
-      <c r="R12" s="40">
-        <v>1</v>
-      </c>
-      <c r="S12" s="40">
-        <v>1</v>
-      </c>
-      <c r="T12" s="40">
-        <v>1</v>
-      </c>
-      <c r="U12" s="40">
-        <v>1</v>
-      </c>
-      <c r="V12" s="40">
-        <v>1</v>
-      </c>
-      <c r="W12" s="40">
-        <v>1</v>
-      </c>
-      <c r="X12" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="40">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="39">
-        <v>0</v>
-      </c>
-      <c r="F13" s="39">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39">
-        <v>0</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0</v>
-      </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="39">
-        <v>1</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1</v>
-      </c>
-      <c r="L13" s="39">
-        <v>1</v>
-      </c>
-      <c r="M13" s="39">
-        <v>0</v>
-      </c>
-      <c r="N13" s="39">
-        <v>0</v>
-      </c>
-      <c r="O13" s="39">
-        <v>0</v>
-      </c>
-      <c r="P13" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="39">
-        <v>0</v>
-      </c>
-      <c r="R13" s="39">
-        <v>0</v>
-      </c>
-      <c r="S13" s="39">
-        <v>0</v>
-      </c>
-      <c r="T13" s="39">
-        <v>0</v>
-      </c>
-      <c r="U13" s="39">
-        <v>0</v>
-      </c>
-      <c r="V13" s="39">
-        <v>0</v>
-      </c>
-      <c r="W13" s="39">
-        <v>0</v>
-      </c>
-      <c r="X13" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="39">
-        <v>0</v>
+      <c r="E13" s="40">
+        <v>1</v>
+      </c>
+      <c r="F13" s="40">
+        <v>1</v>
+      </c>
+      <c r="G13" s="40">
+        <v>1</v>
+      </c>
+      <c r="H13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="40">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40">
+        <v>1</v>
+      </c>
+      <c r="K13" s="40">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40">
+        <v>1</v>
+      </c>
+      <c r="M13" s="40">
+        <v>1</v>
+      </c>
+      <c r="N13" s="40">
+        <v>1</v>
+      </c>
+      <c r="O13" s="40">
+        <v>1</v>
+      </c>
+      <c r="P13" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>1</v>
+      </c>
+      <c r="R13" s="40">
+        <v>1</v>
+      </c>
+      <c r="S13" s="40">
+        <v>1</v>
+      </c>
+      <c r="T13" s="40">
+        <v>1</v>
+      </c>
+      <c r="U13" s="40">
+        <v>1</v>
+      </c>
+      <c r="V13" s="40">
+        <v>1</v>
+      </c>
+      <c r="W13" s="40">
+        <v>1</v>
+      </c>
+      <c r="X13" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="40">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="17" t="s">
-        <v>19</v>
+      <c r="B14" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="39">
         <v>0</v>
       </c>
       <c r="G14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="39">
         <v>0</v>
       </c>
       <c r="I14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="39">
         <v>0</v>
@@ -5145,43 +5157,43 @@
         <v>0</v>
       </c>
       <c r="O14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="39">
         <v>0</v>
       </c>
       <c r="Q14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="39">
         <v>0</v>
       </c>
       <c r="S14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="39">
         <v>0</v>
       </c>
       <c r="U14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="39">
         <v>0</v>
       </c>
       <c r="W14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="39">
         <v>0</v>
       </c>
       <c r="Y14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="39">
         <v>0</v>
       </c>
       <c r="AA14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="39">
         <v>0</v>
@@ -5190,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="39">
         <v>0</v>
@@ -5199,20 +5211,20 @@
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="39">
         <v>0</v>
       </c>
       <c r="G15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="39">
         <v>0</v>
@@ -5233,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="39">
         <v>0</v>
@@ -5245,16 +5257,16 @@
         <v>1</v>
       </c>
       <c r="R15" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="39">
         <v>1</v>
       </c>
       <c r="T15" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="39">
         <v>0</v>
@@ -5263,16 +5275,16 @@
         <v>1</v>
       </c>
       <c r="X15" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="39">
         <v>0</v>
       </c>
       <c r="AA15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="39">
         <v>0</v>
@@ -5281,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="39">
         <v>0</v>
@@ -5290,10 +5302,10 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="39">
@@ -5327,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="39">
         <v>1</v>
@@ -5345,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="U16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="39">
         <v>1</v>
@@ -5357,10 +5369,10 @@
         <v>1</v>
       </c>
       <c r="Y16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="39">
         <v>0</v>
@@ -5372,19 +5384,19 @@
         <v>0</v>
       </c>
       <c r="AD16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="39">
@@ -5394,10 +5406,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="39">
         <v>0</v>
@@ -5418,22 +5430,22 @@
         <v>1</v>
       </c>
       <c r="O17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="39">
         <v>1</v>
@@ -5463,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="AD17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="39">
@@ -5521,22 +5533,22 @@
         <v>0</v>
       </c>
       <c r="S18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="39">
         <v>1</v>
@@ -5545,28 +5557,28 @@
         <v>1</v>
       </c>
       <c r="AA18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="39">
         <v>0</v>
       </c>
       <c r="AD18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>80</v>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="39">
@@ -5576,16 +5588,16 @@
         <v>0</v>
       </c>
       <c r="G19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="39">
         <v>0</v>
@@ -5597,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="39">
         <v>0</v>
@@ -5612,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="39">
         <v>0</v>
@@ -5630,34 +5642,34 @@
         <v>0</v>
       </c>
       <c r="Y19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="39">
         <v>0</v>
       </c>
       <c r="AD19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>108</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="39">
@@ -5673,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="39">
         <v>1</v>
@@ -5743,103 +5755,103 @@
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="44" t="s">
-        <v>172</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="40">
-        <v>1</v>
-      </c>
-      <c r="F21" s="40">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40">
-        <v>1</v>
-      </c>
-      <c r="H21" s="40">
-        <v>1</v>
-      </c>
-      <c r="I21" s="40">
-        <v>1</v>
-      </c>
-      <c r="J21" s="40">
-        <v>1</v>
-      </c>
-      <c r="K21" s="40">
-        <v>1</v>
-      </c>
-      <c r="L21" s="40">
-        <v>1</v>
-      </c>
-      <c r="M21" s="40">
-        <v>1</v>
-      </c>
-      <c r="N21" s="40">
-        <v>1</v>
-      </c>
-      <c r="O21" s="40">
-        <v>1</v>
-      </c>
-      <c r="P21" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="40">
-        <v>1</v>
-      </c>
-      <c r="R21" s="40">
-        <v>1</v>
-      </c>
-      <c r="S21" s="40">
-        <v>1</v>
-      </c>
-      <c r="T21" s="40">
-        <v>1</v>
-      </c>
-      <c r="U21" s="40">
-        <v>1</v>
-      </c>
-      <c r="V21" s="40">
-        <v>1</v>
-      </c>
-      <c r="W21" s="40">
-        <v>1</v>
-      </c>
-      <c r="X21" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="40">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="40">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="40">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="40">
-        <v>1</v>
+      <c r="E21" s="39">
+        <v>0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0</v>
+      </c>
+      <c r="G21" s="39">
+        <v>0</v>
+      </c>
+      <c r="H21" s="39">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="39">
+        <v>1</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0</v>
+      </c>
+      <c r="L21" s="39">
+        <v>0</v>
+      </c>
+      <c r="M21" s="39">
+        <v>0</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0</v>
+      </c>
+      <c r="O21" s="39">
+        <v>0</v>
+      </c>
+      <c r="P21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>0</v>
+      </c>
+      <c r="R21" s="39">
+        <v>0</v>
+      </c>
+      <c r="S21" s="39">
+        <v>0</v>
+      </c>
+      <c r="T21" s="39">
+        <v>0</v>
+      </c>
+      <c r="U21" s="39">
+        <v>0</v>
+      </c>
+      <c r="V21" s="39">
+        <v>0</v>
+      </c>
+      <c r="W21" s="39">
+        <v>0</v>
+      </c>
+      <c r="X21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>56</v>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="39">
@@ -5861,13 +5873,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="39">
         <v>0</v>
@@ -5925,103 +5937,103 @@
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>57</v>
+      <c r="A23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="D23" s="28"/>
-      <c r="E23" s="39">
-        <v>0</v>
-      </c>
-      <c r="F23" s="39">
-        <v>0</v>
-      </c>
-      <c r="G23" s="39">
-        <v>0</v>
-      </c>
-      <c r="H23" s="39">
-        <v>0</v>
-      </c>
-      <c r="I23" s="39">
-        <v>0</v>
-      </c>
-      <c r="J23" s="39">
-        <v>0</v>
-      </c>
-      <c r="K23" s="39">
-        <v>0</v>
-      </c>
-      <c r="L23" s="39">
-        <v>0</v>
-      </c>
-      <c r="M23" s="39">
-        <v>0</v>
-      </c>
-      <c r="N23" s="39">
-        <v>0</v>
-      </c>
-      <c r="O23" s="39">
-        <v>0</v>
-      </c>
-      <c r="P23" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="39">
-        <v>0</v>
-      </c>
-      <c r="R23" s="39">
-        <v>0</v>
-      </c>
-      <c r="S23" s="39">
-        <v>0</v>
-      </c>
-      <c r="T23" s="39">
-        <v>0</v>
-      </c>
-      <c r="U23" s="39">
-        <v>0</v>
-      </c>
-      <c r="V23" s="39">
-        <v>0</v>
-      </c>
-      <c r="W23" s="39">
-        <v>0</v>
-      </c>
-      <c r="X23" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="39">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="39">
-        <v>0</v>
+      <c r="E23" s="40">
+        <v>1</v>
+      </c>
+      <c r="F23" s="40">
+        <v>1</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40">
+        <v>1</v>
+      </c>
+      <c r="I23" s="40">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
+        <v>1</v>
+      </c>
+      <c r="K23" s="40">
+        <v>1</v>
+      </c>
+      <c r="L23" s="40">
+        <v>1</v>
+      </c>
+      <c r="M23" s="40">
+        <v>1</v>
+      </c>
+      <c r="N23" s="40">
+        <v>1</v>
+      </c>
+      <c r="O23" s="40">
+        <v>1</v>
+      </c>
+      <c r="P23" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="40">
+        <v>1</v>
+      </c>
+      <c r="R23" s="40">
+        <v>1</v>
+      </c>
+      <c r="S23" s="40">
+        <v>1</v>
+      </c>
+      <c r="T23" s="40">
+        <v>1</v>
+      </c>
+      <c r="U23" s="40">
+        <v>1</v>
+      </c>
+      <c r="V23" s="40">
+        <v>1</v>
+      </c>
+      <c r="W23" s="40">
+        <v>1</v>
+      </c>
+      <c r="X23" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="40">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>110</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="39">
@@ -6046,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="39">
         <v>0</v>
@@ -6107,105 +6119,103 @@
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>62</v>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D25" s="28"/>
-      <c r="E25" s="40">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40">
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
-        <v>1</v>
-      </c>
-      <c r="H25" s="40">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40">
-        <v>1</v>
-      </c>
-      <c r="J25" s="40">
-        <v>1</v>
-      </c>
-      <c r="K25" s="40">
-        <v>1</v>
-      </c>
-      <c r="L25" s="40">
-        <v>1</v>
-      </c>
-      <c r="M25" s="40">
-        <v>1</v>
-      </c>
-      <c r="N25" s="40">
-        <v>1</v>
-      </c>
-      <c r="O25" s="40">
-        <v>1</v>
-      </c>
-      <c r="P25" s="40">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="40">
-        <v>1</v>
-      </c>
-      <c r="R25" s="40">
-        <v>1</v>
-      </c>
-      <c r="S25" s="40">
-        <v>1</v>
-      </c>
-      <c r="T25" s="40">
-        <v>1</v>
-      </c>
-      <c r="U25" s="40">
-        <v>1</v>
-      </c>
-      <c r="V25" s="40">
-        <v>1</v>
-      </c>
-      <c r="W25" s="40">
-        <v>1</v>
-      </c>
-      <c r="X25" s="40">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="40">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="40">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="40">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="40">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="40">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="40">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="40">
-        <v>1</v>
+      <c r="E25" s="39">
+        <v>0</v>
+      </c>
+      <c r="F25" s="39">
+        <v>0</v>
+      </c>
+      <c r="G25" s="39">
+        <v>0</v>
+      </c>
+      <c r="H25" s="39">
+        <v>0</v>
+      </c>
+      <c r="I25" s="39">
+        <v>0</v>
+      </c>
+      <c r="J25" s="39">
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <v>0</v>
+      </c>
+      <c r="L25" s="39">
+        <v>0</v>
+      </c>
+      <c r="M25" s="39">
+        <v>0</v>
+      </c>
+      <c r="N25" s="39">
+        <v>0</v>
+      </c>
+      <c r="O25" s="39">
+        <v>0</v>
+      </c>
+      <c r="P25" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>0</v>
+      </c>
+      <c r="R25" s="39">
+        <v>0</v>
+      </c>
+      <c r="S25" s="39">
+        <v>0</v>
+      </c>
+      <c r="T25" s="39">
+        <v>0</v>
+      </c>
+      <c r="U25" s="39">
+        <v>0</v>
+      </c>
+      <c r="V25" s="39">
+        <v>0</v>
+      </c>
+      <c r="W25" s="39">
+        <v>0</v>
+      </c>
+      <c r="X25" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="39">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>61</v>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="39">
@@ -6230,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="39">
         <v>0</v>
@@ -6287,6 +6297,190 @@
         <v>0</v>
       </c>
       <c r="AE26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="40">
+        <v>1</v>
+      </c>
+      <c r="F27" s="40">
+        <v>1</v>
+      </c>
+      <c r="G27" s="40">
+        <v>1</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1</v>
+      </c>
+      <c r="J27" s="40">
+        <v>1</v>
+      </c>
+      <c r="K27" s="40">
+        <v>1</v>
+      </c>
+      <c r="L27" s="40">
+        <v>1</v>
+      </c>
+      <c r="M27" s="40">
+        <v>1</v>
+      </c>
+      <c r="N27" s="40">
+        <v>1</v>
+      </c>
+      <c r="O27" s="40">
+        <v>1</v>
+      </c>
+      <c r="P27" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="40">
+        <v>1</v>
+      </c>
+      <c r="R27" s="40">
+        <v>1</v>
+      </c>
+      <c r="S27" s="40">
+        <v>1</v>
+      </c>
+      <c r="T27" s="40">
+        <v>1</v>
+      </c>
+      <c r="U27" s="40">
+        <v>1</v>
+      </c>
+      <c r="V27" s="40">
+        <v>1</v>
+      </c>
+      <c r="W27" s="40">
+        <v>1</v>
+      </c>
+      <c r="X27" s="40">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="40">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="40">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="40">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="40">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="40">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="39">
+        <v>0</v>
+      </c>
+      <c r="F28" s="39">
+        <v>0</v>
+      </c>
+      <c r="G28" s="39">
+        <v>0</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0</v>
+      </c>
+      <c r="I28" s="39">
+        <v>0</v>
+      </c>
+      <c r="J28" s="39">
+        <v>0</v>
+      </c>
+      <c r="K28" s="39">
+        <v>0</v>
+      </c>
+      <c r="L28" s="39">
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
+        <v>1</v>
+      </c>
+      <c r="N28" s="39">
+        <v>0</v>
+      </c>
+      <c r="O28" s="39">
+        <v>0</v>
+      </c>
+      <c r="P28" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="39">
+        <v>0</v>
+      </c>
+      <c r="R28" s="39">
+        <v>0</v>
+      </c>
+      <c r="S28" s="39">
+        <v>0</v>
+      </c>
+      <c r="T28" s="39">
+        <v>0</v>
+      </c>
+      <c r="U28" s="39">
+        <v>0</v>
+      </c>
+      <c r="V28" s="39">
+        <v>0</v>
+      </c>
+      <c r="W28" s="39">
+        <v>0</v>
+      </c>
+      <c r="X28" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="39">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6299,7 +6493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB6C55B-1828-4F5C-B408-11EC569BF4A7}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -6341,8 +6535,8 @@
         <v>86</v>
       </c>
       <c r="E4" t="str">
-        <f>_xlfn.CONCAT(Foglio3!E5:E26)</f>
-        <v>1111011101000000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!E5:E28)</f>
+        <v>111101101010000000100010</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6356,8 +6550,8 @@
         <v>89</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.CONCAT(Foglio3!F5:F26)</f>
-        <v>1110010100000000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!F5:F28)</f>
+        <v>111001001000000000100010</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,8 +6565,8 @@
         <v>97</v>
       </c>
       <c r="E6" t="str">
-        <f>_xlfn.CONCAT(Foglio3!G5:G26)</f>
-        <v>1111011101001100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!G5:G28)</f>
+        <v>111101101010011000100010</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6386,8 +6580,8 @@
         <v>99</v>
       </c>
       <c r="E7" t="str">
-        <f>_xlfn.CONCAT(Foglio3!H5:H26)</f>
-        <v>1110010100001100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!H5:H28)</f>
+        <v>111001001000011000100010</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6401,8 +6595,8 @@
         <v>101</v>
       </c>
       <c r="E8" t="str">
-        <f>_xlfn.CONCAT(Foglio3!I5:I26)</f>
-        <v>1100101110000010100010</v>
+        <f>_xlfn.CONCAT(Foglio3!I5:I28)</f>
+        <v>110010101100000100100010</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6416,8 +6610,8 @@
         <v>112</v>
       </c>
       <c r="E9" t="str">
-        <f>_xlfn.CONCAT(Foglio3!J5:J26)</f>
-        <v>1100101110000011100010</v>
+        <f>_xlfn.CONCAT(Foglio3!J5:J28)</f>
+        <v>110010101100000110100010</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6431,8 +6625,8 @@
         <v>104</v>
       </c>
       <c r="E10" t="str">
-        <f>_xlfn.CONCAT(Foglio3!K5:K26)</f>
-        <v>1100101110000000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!K5:K28)</f>
+        <v>110010111100000001100010</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6446,8 +6640,8 @@
         <v>106</v>
       </c>
       <c r="E11" t="str">
-        <f>_xlfn.CONCAT(Foglio3!L5:L26)</f>
-        <v>1100111110000000100110</v>
+        <f>_xlfn.CONCAT(Foglio3!L5:L28)</f>
+        <v>110011111100000001100110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6461,8 +6655,8 @@
         <v>116</v>
       </c>
       <c r="E12" t="str">
-        <f>_xlfn.CONCAT(Foglio3!M5:M26)</f>
-        <v>1110010100000000110011</v>
+        <f>_xlfn.CONCAT(Foglio3!M5:M28)</f>
+        <v>111101001000000000110011</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6476,8 +6670,8 @@
         <v>117</v>
       </c>
       <c r="E13" s="45" t="str">
-        <f>_xlfn.CONCAT(Foglio3!N5:N26)</f>
-        <v>1100000100111100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!N5:N28)</f>
+        <v>110000001001111000100010</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6491,8 +6685,8 @@
         <v>120</v>
       </c>
       <c r="E14" t="str">
-        <f>_xlfn.CONCAT(Foglio3!O5:O26)</f>
-        <v>1111011101010000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!O5:O28)</f>
+        <v>111101101010100000100010</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6506,8 +6700,8 @@
         <v>122</v>
       </c>
       <c r="E15" t="str">
-        <f>_xlfn.CONCAT(Foglio3!P5:P26)</f>
-        <v>1110010100010000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!P5:P28)</f>
+        <v>111001001000100000100010</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6521,8 +6715,8 @@
         <v>128</v>
       </c>
       <c r="E16" t="str">
-        <f>_xlfn.CONCAT(Foglio3!Q5:Q26)</f>
-        <v>1111011101110000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!Q5:Q28)</f>
+        <v>111101101011100000100010</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6536,8 +6730,8 @@
         <v>130</v>
       </c>
       <c r="E17" t="str">
-        <f>_xlfn.CONCAT(Foglio3!R5:R26)</f>
-        <v>1110010100110000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!R5:R28)</f>
+        <v>111001001001100000100010</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6551,8 +6745,8 @@
         <v>133</v>
       </c>
       <c r="E18" t="str">
-        <f>_xlfn.CONCAT(Foglio3!S5:S26)</f>
-        <v>1111011101110100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!S5:S28)</f>
+        <v>111101101011101000100010</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6566,8 +6760,8 @@
         <v>135</v>
       </c>
       <c r="E19" t="str">
-        <f>_xlfn.CONCAT(Foglio3!T5:T26)</f>
-        <v>1110010100110100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!T5:T28)</f>
+        <v>111001001001101000100010</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6581,8 +6775,8 @@
         <v>138</v>
       </c>
       <c r="E20" t="str">
-        <f>_xlfn.CONCAT(Foglio3!U5:U26)</f>
-        <v>1111011101011000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!U5:U28)</f>
+        <v>111101101010110000100010</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6596,8 +6790,8 @@
         <v>140</v>
       </c>
       <c r="E21" t="str">
-        <f>_xlfn.CONCAT(Foglio3!V5:V26)</f>
-        <v>1110010100011000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!V5:V28)</f>
+        <v>111001001000110000100010</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6611,8 +6805,8 @@
         <v>148</v>
       </c>
       <c r="E22" t="str">
-        <f>_xlfn.CONCAT(Foglio3!W5:W26)</f>
-        <v>1111011101111000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!W5:W28)</f>
+        <v>111101101011110000100010</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6626,8 +6820,8 @@
         <v>150</v>
       </c>
       <c r="E23" t="str">
-        <f>_xlfn.CONCAT(Foglio3!X5:X26)</f>
-        <v>1110010100111000100010</v>
+        <f>_xlfn.CONCAT(Foglio3!X5:X28)</f>
+        <v>111001001001110000100010</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6641,8 +6835,8 @@
         <v>154</v>
       </c>
       <c r="E24" t="str">
-        <f>_xlfn.CONCAT(Foglio3!Y5:Y26)</f>
-        <v>1111011101011100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!Y5:Y28)</f>
+        <v>111101101010111000100010</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6656,8 +6850,8 @@
         <v>155</v>
       </c>
       <c r="E25" t="str">
-        <f>_xlfn.CONCAT(Foglio3!Z5:Z26)</f>
-        <v>1110010100011100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!Z5:Z28)</f>
+        <v>111001001000111000100010</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6671,8 +6865,8 @@
         <v>156</v>
       </c>
       <c r="E26" t="str">
-        <f>_xlfn.CONCAT(Foglio3!AA5:AA26)</f>
-        <v>1111011101000100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!AA5:AA28)</f>
+        <v>111101101010001000100010</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6686,8 +6880,8 @@
         <v>158</v>
       </c>
       <c r="E27" t="str">
-        <f>_xlfn.CONCAT(Foglio3!AB5:AB26)</f>
-        <v>1110010100000100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!AB5:AB28)</f>
+        <v>111001001000001000100010</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6701,8 +6895,8 @@
         <v>160</v>
       </c>
       <c r="E28" t="str">
-        <f>_xlfn.CONCAT(Foglio3!AC5:AC26)</f>
-        <v>1111000100000000101010</v>
+        <f>_xlfn.CONCAT(Foglio3!AC5:AC28)</f>
+        <v>111100001000000000101010</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6716,8 +6910,8 @@
         <v>164</v>
       </c>
       <c r="E29" t="str">
-        <f>_xlfn.CONCAT(Foglio3!AD5:AD26)</f>
-        <v>1111011101010100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!AD5:AD28)</f>
+        <v>111101101010101000100010</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6731,8 +6925,8 @@
         <v>166</v>
       </c>
       <c r="E30" t="str">
-        <f>_xlfn.CONCAT(Foglio3!AE5:AE26)</f>
-        <v>1110010100010100100010</v>
+        <f>_xlfn.CONCAT(Foglio3!AE5:AE28)</f>
+        <v>111001001000101000100010</v>
       </c>
     </row>
   </sheetData>

--- a/docs/DLX control word.xlsx
+++ b/docs/DLX control word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8FC14-0942-4BC2-9B28-C0ADD807282C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FBE2A-48AD-42CB-895C-44FF318B5F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7980" yWindow="6900" windowWidth="16500" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7980" yWindow="6900" windowWidth="16500" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4083,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0929A988-5560-4896-A0B9-6001DEF27DFB}">
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5139,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="39">
         <v>0</v>
@@ -5321,16 +5321,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="39">
         <v>0</v>
@@ -5412,16 +5412,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="39">
         <v>0</v>
@@ -5503,16 +5503,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="39">
         <v>0</v>
@@ -5594,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="39">
         <v>0</v>
@@ -6493,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB6C55B-1828-4F5C-B408-11EC569BF4A7}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="E8" t="str">
         <f>_xlfn.CONCAT(Foglio3!I5:I28)</f>
-        <v>110010101100000100100010</v>
+        <v>110010101001111100100010</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT(Foglio3!J5:J28)</f>
-        <v>110010101100000110100010</v>
+        <v>110010101001111110100010</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT(Foglio3!K5:K28)</f>
-        <v>110010111100000001100010</v>
+        <v>110010111001111001100010</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT(Foglio3!L5:L28)</f>
-        <v>110011111100000001100110</v>
+        <v>110011111001111001100110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/DLX control word.xlsx
+++ b/docs/DLX control word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FBE2A-48AD-42CB-895C-44FF318B5F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDE11B-AF0D-4DF5-9EBC-F42E34E3E248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7980" yWindow="6900" windowWidth="16500" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1560" windowWidth="16500" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,7 +848,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4084,7 +4086,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4502,10 +4504,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="39">
         <v>0</v>
@@ -4684,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="39">
         <v>1</v>
@@ -4865,11 +4867,11 @@
       <c r="H11" s="39">
         <v>0</v>
       </c>
-      <c r="I11" s="39">
-        <v>1</v>
+      <c r="I11" s="45">
+        <v>0</v>
       </c>
       <c r="J11" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="39">
         <v>1</v>
@@ -4957,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="39">
         <v>1</v>
@@ -5148,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="39">
         <v>0</v>
@@ -5239,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="39">
         <v>0</v>
@@ -5330,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="39">
         <v>0</v>
@@ -5421,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="39">
         <v>0</v>
@@ -5512,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="39">
         <v>0</v>
@@ -5603,7 +5605,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="39">
         <v>0</v>
@@ -6596,7 +6598,7 @@
       </c>
       <c r="E8" t="str">
         <f>_xlfn.CONCAT(Foglio3!I5:I28)</f>
-        <v>110010101001111100100010</v>
+        <v>111000011001111100100010</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6611,7 +6613,7 @@
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT(Foglio3!J5:J28)</f>
-        <v>110010101001111110100010</v>
+        <v>111000011001111110100010</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6641,7 +6643,7 @@
       </c>
       <c r="E11" t="str">
         <f>_xlfn.CONCAT(Foglio3!L5:L28)</f>
-        <v>110011111001111001100110</v>
+        <v>110011111110000001100110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6669,7 +6671,7 @@
       <c r="C13" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="30" t="str">
         <f>_xlfn.CONCAT(Foglio3!N5:N28)</f>
         <v>110000001001111000100010</v>
       </c>

--- a/docs/DLX control word.xlsx
+++ b/docs/DLX control word.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Desktop\Digital_Designs\git_repositories\dlx_project-dlx_dp2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDE11B-AF0D-4DF5-9EBC-F42E34E3E248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F5A7F-EC80-48BF-8E90-C25FB33BA7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1560" windowWidth="16500" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio3" sheetId="4" r:id="rId2"/>
-    <sheet name="Foglio2" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId4"/>
+    <sheet name="Foglio4" sheetId="5" r:id="rId3"/>
+    <sheet name="Foglio2" sheetId="3" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="184">
   <si>
     <t>Original Name</t>
   </si>
@@ -565,6 +566,27 @@
   </si>
   <si>
     <t>D_IS_JUMP</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>IS_ZERO</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>DP_FLUSH</t>
+  </si>
+  <si>
+    <t>Da invertire</t>
+  </si>
+  <si>
+    <t>NOT(RST) OR (D_IS_JUMP AND NOT(D_EN_COMPARATOR)) OR (D_IS_JUMP AND NOT(IS_ZERO_PREC))</t>
+  </si>
+  <si>
+    <t>(NOT(D_IS_JUMP) AND RST) OR (E_EN_COMPARATOR AND IS_ZERO AND RST)</t>
   </si>
 </sst>
 </file>
@@ -794,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -851,6 +873,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4083,10 +4106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0929A988-5560-4896-A0B9-6001DEF27DFB}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4098,7 +4121,7 @@
     <col min="5" max="31" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4186,8 +4209,11 @@
       <c r="AE1" s="38" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4252,7 @@
       <c r="AD2" s="37"/>
       <c r="AE2" s="37"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -4263,7 +4289,7 @@
       <c r="AD3" s="37"/>
       <c r="AE3" s="37"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -4300,7 +4326,7 @@
       <c r="AD4" s="37"/>
       <c r="AE4" s="37"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4390,8 +4416,11 @@
       <c r="AE5" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF5" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>8</v>
@@ -4481,8 +4510,11 @@
       <c r="AE6" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF6" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>9</v>
@@ -4572,8 +4604,11 @@
       <c r="AE7" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>10</v>
@@ -4663,8 +4698,11 @@
       <c r="AE8" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -4754,8 +4792,11 @@
       <c r="AE9" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
         <v>11</v>
@@ -4845,8 +4886,11 @@
       <c r="AE10" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>90</v>
@@ -4936,8 +4980,11 @@
       <c r="AE11" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
         <v>175</v>
@@ -5027,8 +5074,11 @@
       <c r="AE12" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -5118,8 +5168,11 @@
       <c r="AE13" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="15" t="s">
         <v>18</v>
@@ -5209,8 +5262,11 @@
       <c r="AE14" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="17" t="s">
         <v>19</v>
@@ -5300,8 +5356,11 @@
       <c r="AE15" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="17" t="s">
         <v>20</v>
@@ -5391,8 +5450,11 @@
       <c r="AE16" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -5482,8 +5544,11 @@
       <c r="AE17" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="17" t="s">
         <v>22</v>
@@ -5573,8 +5638,11 @@
       <c r="AE18" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="17" t="s">
         <v>23</v>
@@ -5664,8 +5732,11 @@
       <c r="AE19" s="39">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="33" t="s">
         <v>79</v>
@@ -5755,8 +5826,11 @@
       <c r="AE20" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="17" t="s">
         <v>107</v>
@@ -5846,8 +5920,11 @@
       <c r="AE21" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
         <v>173</v>
@@ -5937,8 +6014,11 @@
       <c r="AE22" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
@@ -6028,8 +6108,11 @@
       <c r="AE23" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
         <v>29</v>
@@ -6119,8 +6202,11 @@
       <c r="AE24" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
         <v>11</v>
@@ -6210,8 +6296,11 @@
       <c r="AE25" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>109</v>
@@ -6301,8 +6390,11 @@
       <c r="AE26" s="39">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
         <v>32</v>
       </c>
@@ -6394,8 +6486,11 @@
       <c r="AE27" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="24" t="s">
         <v>33</v>
@@ -6483,6 +6578,9 @@
         <v>0</v>
       </c>
       <c r="AE28" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6492,11 +6590,387 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE73BB57-3607-4C1D-8473-150D47F7B25D}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB6C55B-1828-4F5C-B408-11EC569BF4A7}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6505,6 +6979,7 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
@@ -6929,6 +7404,15 @@
       <c r="E30" t="str">
         <f>_xlfn.CONCAT(Foglio3!AE5:AE28)</f>
         <v>111001001000101000100010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="str">
+        <f>_xlfn.CONCAT(Foglio3!AF5:AF28)</f>
+        <v>110000001001111000100010</v>
       </c>
     </row>
   </sheetData>
@@ -6937,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B24CB6-A565-42D5-A263-D68CF5F5CFD6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
